--- a/biology/Zoologie/Jemadia_pseudognetus/Jemadia_pseudognetus.xlsx
+++ b/biology/Zoologie/Jemadia_pseudognetus/Jemadia_pseudognetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia pseudognetus est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia pseudognetus a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga pseudognetus[1].
-Nom vernaculaire
-Jemadia pseudognetus se nomme Dot-collared Skipper en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia pseudognetus a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga pseudognetus.
 </t>
         </is>
       </c>
@@ -541,48 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia pseudognetus se nomme Dot-collared Skipper en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia pseudognetus est un papillon au corps trapu au thorax rayé en long de bandes de poils et à l'abdomen rayé en cercles blancs. 
 Les ailes sont de couleur bleu ardoise foncé avec aux ailes antérieures une plage et deux bandes blanches et une ligne submarginale bleu clair métallisé.
 Le revers est semblable.
-Chenille
-La chenille est marron cerclée de jaune.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jemadia_pseudognetus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Ocotea, Ocotea cernua et Ocotea insularis, des  Nectandra dont Nectandra hihua et Nectandra membranacea et Persea provedae[1].
 </t>
         </is>
       </c>
@@ -608,17 +625,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est marron cerclée de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Ocotea, Ocotea cernua et Ocotea insularis, des  Nectandra dont Nectandra hihua et Nectandra membranacea et Persea provedae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia pseudognetus est présent au Mexique, au Costa Rica, en Colombie, au Venezuela, au Pérou et au Brésil[1],[2].
-Biotope
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia pseudognetus est présent au Mexique, au Costa Rica, en Colombie, au Venezuela, au Pérou et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jemadia pseudognetus, sur Wikimedia CommonsJemadia pseudognetus, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_pseudognetus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
